--- a/Analyse/Dictionnaire de données.xlsx
+++ b/Analyse/Dictionnaire de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
   <si>
     <t>Potion</t>
   </si>
@@ -132,6 +132,30 @@
   </si>
   <si>
     <t>ID récipient</t>
+  </si>
+  <si>
+    <t>Nom client</t>
+  </si>
+  <si>
+    <t>Adresse client</t>
+  </si>
+  <si>
+    <t>Fraicheur 1</t>
+  </si>
+  <si>
+    <t>Fraicheur 5</t>
+  </si>
+  <si>
+    <t>Fraicheur 4</t>
+  </si>
+  <si>
+    <t>Fraicheur 3</t>
+  </si>
+  <si>
+    <t>Fraicheur 2</t>
+  </si>
+  <si>
+    <t>Fraicheur</t>
   </si>
 </sst>
 </file>
@@ -542,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,159 +664,152 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>25</v>
+      <c r="C25" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -801,102 +818,193 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>24</v>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>24</v>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>25</v>
+      <c r="B33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+      <c r="C39" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="C40" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+      <c r="C41" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>24</v>
+      <c r="C42" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Analyse/Dictionnaire de données.xlsx
+++ b/Analyse/Dictionnaire de données.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344b62aa2147e5f/Documents/A1/PROJET/Projet 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taver\OneDrive\Documents\A1\PROJET\Projet 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Potion</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Fraicheur</t>
+  </si>
+  <si>
+    <t>Récipient</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -252,6 +258,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1015,44 @@
         <v>25</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyse/Dictionnaire de données.xlsx
+++ b/Analyse/Dictionnaire de données.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5344b62aa2147e5f/Documents/A1/PROJET/Projet 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPN\Desktop\Prj BDD\GiselleMagicArts\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Potion</t>
   </si>
@@ -156,12 +156,18 @@
   </si>
   <si>
     <t>Fraicheur</t>
+  </si>
+  <si>
+    <t>Récipient</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,11 +242,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -252,6 +289,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,19 +608,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -589,7 +631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,7 +642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -609,7 +651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -618,7 +660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -627,7 +669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -636,7 +678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -645,7 +687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
@@ -654,7 +696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
@@ -663,7 +705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -671,7 +713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
@@ -679,7 +721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
@@ -687,7 +729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
@@ -695,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
@@ -703,7 +745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>23</v>
@@ -712,7 +754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>18</v>
@@ -721,7 +763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -732,7 +774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>14</v>
@@ -741,7 +783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>3</v>
@@ -750,7 +792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>7</v>
@@ -759,7 +801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
@@ -768,7 +810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>16</v>
@@ -777,7 +819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>17</v>
@@ -786,7 +828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>2</v>
@@ -795,7 +837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -806,7 +848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -815,7 +857,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>11</v>
@@ -824,7 +866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>15</v>
@@ -833,7 +875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -844,7 +886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>15</v>
@@ -853,7 +895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>11</v>
@@ -862,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
@@ -871,7 +913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>35</v>
@@ -880,7 +922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>33</v>
@@ -889,7 +931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="9" t="s">
         <v>34</v>
@@ -898,7 +940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -909,7 +951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>22</v>
@@ -918,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>19</v>
@@ -927,7 +969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -936,7 +978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -945,7 +987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>6</v>
@@ -954,7 +996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>31</v>
@@ -963,7 +1005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
         <v>9</v>
@@ -972,7 +1014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>32</v>
@@ -981,7 +1023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>43</v>
       </c>
@@ -989,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
         <v>36</v>
@@ -998,13 +1040,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Analyse/Dictionnaire de données.xlsx
+++ b/Analyse/Dictionnaire de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>Potion</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Prenom client</t>
+  </si>
+  <si>
+    <t>ID Stock</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -229,52 +232,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -287,14 +250,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,609 +572,591 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C42" sqref="C37:C42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+      <c r="C37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="5"/>
+      <c r="C42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5"/>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="5"/>
+      <c r="C45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="5"/>
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="5"/>
+      <c r="C48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="5"/>
+      <c r="C49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+      <c r="C50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5"/>
+      <c r="C51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5"/>
+      <c r="C52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="3" t="s">
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="5"/>
+      <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
-      <c r="C51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="7"/>
-      <c r="C52" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="7"/>
-      <c r="C53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
-      <c r="C54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="8"/>
-      <c r="C55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>24</v>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="3" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>24</v>
+      <c r="B57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-      <c r="C58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>23</v>
+      <c r="B58" s="5"/>
+      <c r="C58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="8"/>
-      <c r="C59" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>23</v>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
-      <c r="C61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="5"/>
-      <c r="C63" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="5"/>
-      <c r="C64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B60:B64"/>
     <mergeCell ref="B3:B17"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B42"/>
-    <mergeCell ref="B43:B55"/>
-    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B40:B52"/>
+    <mergeCell ref="B30:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyse/Dictionnaire de données.xlsx
+++ b/Analyse/Dictionnaire de données.xlsx
@@ -173,9 +173,6 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>Adresse fourniseur</t>
-  </si>
-  <si>
     <t>Date envoi</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Date commande</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
   </si>
 </sst>
 </file>
@@ -595,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,17 +1108,22 @@
         <v>49</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analyse/Dictionnaire de données.xlsx
+++ b/Analyse/Dictionnaire de données.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taver\OneDrive\Documents\A1\PROJET\Projet 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPN\Desktop\Prj BDD\GiselleMagicArts\Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -281,6 +281,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,17 +606,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -618,8 +627,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -629,8 +638,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
@@ -638,8 +647,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -647,8 +656,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -656,8 +665,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -665,8 +674,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -674,8 +683,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -683,8 +692,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
@@ -692,7 +701,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
@@ -700,7 +710,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
       <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
@@ -708,7 +719,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
       <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
@@ -716,7 +728,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
@@ -724,7 +737,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
       <c r="B14" s="7" t="s">
         <v>39</v>
       </c>
@@ -732,8 +746,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>23</v>
       </c>
@@ -741,8 +755,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -750,8 +764,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -761,8 +775,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
@@ -770,8 +784,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,8 +793,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
@@ -788,8 +802,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
@@ -797,8 +811,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
@@ -806,8 +820,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
@@ -815,8 +829,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
@@ -824,8 +838,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -835,8 +849,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
@@ -844,8 +858,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
@@ -853,8 +867,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
@@ -862,8 +876,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -873,8 +887,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
         <v>15</v>
       </c>
@@ -882,8 +896,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
@@ -891,8 +905,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -900,8 +914,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
       <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
@@ -909,8 +923,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
       <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
@@ -918,8 +932,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
         <v>34</v>
       </c>
@@ -927,8 +941,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -938,8 +952,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
       <c r="B37" s="3" t="s">
         <v>22</v>
       </c>
@@ -947,8 +961,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
@@ -956,8 +970,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
         <v>29</v>
       </c>
@@ -965,8 +979,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
       <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
@@ -974,8 +988,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
       <c r="B41" s="3" t="s">
         <v>6</v>
       </c>
@@ -983,8 +997,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
       <c r="B42" s="3" t="s">
         <v>31</v>
       </c>
@@ -992,8 +1006,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
       <c r="B43" s="7" t="s">
         <v>9</v>
       </c>
@@ -1001,8 +1015,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
       <c r="B44" s="7" t="s">
         <v>32</v>
       </c>
@@ -1010,7 +1024,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
       <c r="B45" s="7" t="s">
         <v>43</v>
       </c>
@@ -1018,7 +1033,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
       <c r="B46" s="7" t="s">
         <v>51</v>
       </c>
@@ -1026,8 +1042,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
       <c r="B47" s="7" t="s">
         <v>36</v>
       </c>
@@ -1035,8 +1051,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
       <c r="B48" s="9" t="s">
         <v>37</v>
       </c>
@@ -1044,8 +1060,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -1055,8 +1071,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
       <c r="B50" s="7" t="s">
         <v>19</v>
       </c>
@@ -1064,8 +1080,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
       <c r="B51" s="7" t="s">
         <v>2</v>
       </c>
@@ -1073,8 +1089,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
       <c r="B52" s="9" t="s">
         <v>45</v>
       </c>
@@ -1082,8 +1098,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -1093,8 +1109,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
       <c r="B54" s="7" t="s">
         <v>48</v>
       </c>
@@ -1102,8 +1118,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
       <c r="B55" s="7" t="s">
         <v>49</v>
       </c>
@@ -1111,8 +1127,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="15"/>
       <c r="B56" s="9" t="s">
         <v>52</v>
       </c>
@@ -1120,12 +1136,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="A49:A52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>